--- a/ausarbeitung/datensatz2.xlsx
+++ b/ausarbeitung/datensatz2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\post_\Documents\Uni\Masterarbeit\waldemar\ausarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAB46DD-DFE1-4071-8C36-33A9F55334BB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EF00DD-1B5A-4F8E-A491-A3C2AF06DDB6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6380" tabRatio="704" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="547">
   <si>
     <t>CASE</t>
   </si>
@@ -1687,6 +1687,30 @@
   </si>
   <si>
     <t>Kinderlose</t>
+  </si>
+  <si>
+    <t>Kategorisierung der Gründe</t>
+  </si>
+  <si>
+    <t>Neugier: VII</t>
+  </si>
+  <si>
+    <t>Zufall: III</t>
+  </si>
+  <si>
+    <t>Freunde/Schule: V</t>
+  </si>
+  <si>
+    <t>Nachahmen: VII</t>
+  </si>
+  <si>
+    <t>Gegen Langeweile/Ablenkung: IIII</t>
+  </si>
+  <si>
+    <t>Belohnung: I</t>
+  </si>
+  <si>
+    <t>Gesamt: 32 Gründe</t>
   </si>
 </sst>
 </file>
@@ -16626,10 +16650,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="38" zoomScaleNormal="38" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="55" zoomScaleNormal="38" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77:O94"/>
+      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21967,6 +21991,9 @@
       <c r="D78" s="5" t="s">
         <v>499</v>
       </c>
+      <c r="E78" s="5" t="s">
+        <v>539</v>
+      </c>
       <c r="F78" s="5" t="s">
         <v>500</v>
       </c>
@@ -22036,6 +22063,9 @@
         <f>COUNTIF(D3:D48,"unter drei Jahre")</f>
         <v>17</v>
       </c>
+      <c r="E79" t="s">
+        <v>540</v>
+      </c>
       <c r="F79">
         <f t="shared" ref="F79:O79" si="0">COUNTIF(F3:F76,"Absolut unpassend [0]")</f>
         <v>4</v>
@@ -22136,6 +22166,9 @@
       <c r="D81" t="s">
         <v>478</v>
       </c>
+      <c r="E81" t="s">
+        <v>541</v>
+      </c>
       <c r="F81" t="s">
         <v>501</v>
       </c>
@@ -22291,6 +22324,9 @@
         <f>D82/46</f>
         <v>2.1739130434782608E-2</v>
       </c>
+      <c r="E83" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -22374,6 +22410,9 @@
         <f>COUNTIF(D3:D48,"vier Jahre")</f>
         <v>1</v>
       </c>
+      <c r="E85" t="s">
+        <v>543</v>
+      </c>
       <c r="F85">
         <f t="shared" ref="F85:O85" si="4">COUNTIF(F3:F76,"neutral [2]")</f>
         <v>6</v>
@@ -22474,6 +22513,9 @@
       <c r="D87" t="s">
         <v>476</v>
       </c>
+      <c r="E87" t="s">
+        <v>544</v>
+      </c>
       <c r="F87" t="s">
         <v>503</v>
       </c>
@@ -22629,6 +22671,9 @@
         <f>D88/46</f>
         <v>4.3478260869565216E-2</v>
       </c>
+      <c r="E89" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
@@ -22797,6 +22842,9 @@
       <c r="D92" s="8">
         <f>D91/46</f>
         <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.35">
